--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -407,11 +407,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
-    <numFmt numFmtId="166" formatCode="0\ %"/>
-    <numFmt numFmtId="167" formatCode="d/m"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0\ %"/>
+    <numFmt numFmtId="168" formatCode="d/m"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -634,11 +635,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,7 +647,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,16 +1073,6 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i t="grand">
-      <x v="0"/>
-    </i>
-  </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -1269,7 +1260,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
@@ -2308,11 +2299,11 @@
   </sheetPr>
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H70" activeCellId="0" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.96"/>
@@ -3136,6 +3127,9 @@
       <c r="D43" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E43" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F43" s="9" t="n">
         <v>1</v>
       </c>
@@ -3153,6 +3147,9 @@
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E44" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F44" s="9" t="n">
         <v>1</v>
       </c>
@@ -3170,6 +3167,9 @@
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E45" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="F45" s="9" t="n">
         <v>1</v>
       </c>
@@ -3187,6 +3187,9 @@
       <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E46" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="F46" s="9" t="n">
         <v>1</v>
       </c>
@@ -3204,6 +3207,9 @@
       <c r="D47" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E47" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F47" s="9" t="n">
         <v>1</v>
       </c>
@@ -3221,6 +3227,9 @@
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E48" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F48" s="9" t="n">
         <v>1</v>
       </c>
@@ -3238,6 +3247,9 @@
       <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E49" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F49" s="9" t="n">
         <v>1</v>
       </c>
@@ -3255,6 +3267,9 @@
       <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E50" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" s="9" t="n">
         <v>1</v>
       </c>
@@ -3272,6 +3287,9 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E51" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" s="9" t="n">
         <v>1</v>
       </c>
@@ -3289,6 +3307,9 @@
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E52" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F52" s="9" t="n">
         <v>1</v>
       </c>
@@ -3306,6 +3327,9 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E53" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F53" s="9" t="n">
         <v>1</v>
       </c>
@@ -3323,6 +3347,9 @@
       <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E54" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F54" s="9" t="n">
         <v>1</v>
       </c>
@@ -3340,6 +3367,9 @@
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E55" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="F55" s="9" t="n">
         <v>1</v>
       </c>
@@ -3357,6 +3387,9 @@
       <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E56" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F56" s="9" t="n">
         <v>1</v>
       </c>
@@ -3374,6 +3407,9 @@
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E57" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F57" s="9" t="n">
         <v>1</v>
       </c>
@@ -3391,6 +3427,9 @@
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E58" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="F58" s="9" t="n">
         <v>1</v>
       </c>
@@ -3408,6 +3447,9 @@
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E59" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F59" s="9" t="n">
         <v>1</v>
       </c>
@@ -3425,6 +3467,9 @@
       <c r="D60" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E60" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F60" s="9" t="n">
         <v>1</v>
       </c>
@@ -3442,6 +3487,9 @@
       <c r="D61" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E61" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="F61" s="9" t="n">
         <v>1</v>
       </c>
@@ -3459,6 +3507,9 @@
       <c r="D62" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F62" s="9" t="n">
         <v>1</v>
       </c>
@@ -3476,6 +3527,9 @@
       <c r="D63" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E63" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F63" s="9" t="n">
         <v>1</v>
       </c>
@@ -3493,6 +3547,9 @@
       <c r="D64" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E64" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F64" s="9" t="n">
         <v>1</v>
       </c>
@@ -3510,6 +3567,9 @@
       <c r="D65" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E65" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="F65" s="9" t="n">
         <v>1</v>
       </c>
@@ -3527,6 +3587,9 @@
       <c r="D66" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E66" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="F66" s="9" t="n">
         <v>1</v>
       </c>
@@ -3544,6 +3607,9 @@
       <c r="D67" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E67" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F67" s="9" t="n">
         <v>1</v>
       </c>
@@ -3561,6 +3627,9 @@
       <c r="D68" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E68" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="F68" s="9" t="n">
         <v>1</v>
       </c>
@@ -3578,6 +3647,9 @@
       <c r="D69" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E69" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F69" s="9" t="n">
         <v>1</v>
       </c>
@@ -3595,6 +3667,9 @@
       <c r="D70" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E70" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="F70" s="9" t="n">
         <v>1</v>
       </c>
@@ -3612,6 +3687,9 @@
       <c r="D71" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E71" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F71" s="9" t="n">
         <v>1</v>
       </c>
@@ -3629,6 +3707,9 @@
       <c r="D72" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E72" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="F72" s="9" t="n">
         <v>1</v>
       </c>
@@ -3646,6 +3727,9 @@
       <c r="D73" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E73" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="F73" s="9" t="n">
         <v>1</v>
       </c>
@@ -3663,6 +3747,9 @@
       <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E74" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F74" s="9" t="n">
         <v>0.5</v>
       </c>
@@ -3680,6 +3767,9 @@
       <c r="D75" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E75" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F75" s="9" t="n">
         <v>0.6</v>
       </c>
@@ -3697,6 +3787,9 @@
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E76" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="F76" s="9" t="n">
         <v>1</v>
       </c>
@@ -3713,6 +3806,9 @@
       </c>
       <c r="D77" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>0.4</v>
@@ -5067,11 +5163,11 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="1" width="9.38"/>
@@ -6144,7 +6240,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.96484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="1" width="9.38"/>
   </cols>
